--- a/proj1/ExperienceGraph.xlsx
+++ b/proj1/ExperienceGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfreiredandrade/Documents/Tecnico/Cadeiras/Periodo2/ASA/Projeto/proj1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104C5C73-3529-7143-92CB-E3F2B78FF8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A95349-D141-6F40-ABD7-D66E18011768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{27667CF5-8D8E-AD4D-99AC-E23C567C326D}"/>
   </bookViews>
@@ -177,31 +177,31 @@
                   <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2250000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6250000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9000000</c:v>
+                  <c:v>25000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12250000</c:v>
+                  <c:v>36000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16000000</c:v>
+                  <c:v>49000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20250000</c:v>
+                  <c:v>64000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25000000</c:v>
+                  <c:v>81000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30250000</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B5E8F-3F34-7B4E-B409-44A338A302FB}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1477,13 +1477,13 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" si="0">D3*D3</f>
-        <v>2250000</v>
+        <v>4000000</v>
       </c>
       <c r="C3">
         <v>0.161</v>
       </c>
       <c r="D3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1492,13 +1492,13 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>4000000</v>
+        <v>9000000</v>
       </c>
       <c r="C4">
         <v>0.34399999999999997</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,13 +1507,13 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>6250000</v>
+        <v>16000000</v>
       </c>
       <c r="C5">
         <v>0.59</v>
       </c>
       <c r="D5">
-        <v>2500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1522,13 +1522,13 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>9000000</v>
+        <v>25000000</v>
       </c>
       <c r="C6">
         <v>0.97399999999999998</v>
       </c>
       <c r="D6">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,13 +1537,13 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>12250000</v>
+        <v>36000000</v>
       </c>
       <c r="C7">
         <v>1.393</v>
       </c>
       <c r="D7">
-        <v>3500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1552,13 +1552,13 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>16000000</v>
+        <v>49000000</v>
       </c>
       <c r="C8">
         <v>1.8759999999999999</v>
       </c>
       <c r="D8">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,13 +1567,13 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>20250000</v>
+        <v>64000000</v>
       </c>
       <c r="C9">
         <v>2.5009999999999999</v>
       </c>
       <c r="D9">
-        <v>4500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1582,13 +1582,13 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>25000000</v>
+        <v>81000000</v>
       </c>
       <c r="C10">
         <v>3.149</v>
       </c>
       <c r="D10">
-        <v>5000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1597,13 +1597,13 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>30250000</v>
+        <v>100000000</v>
       </c>
       <c r="C11">
         <v>3.7989999999999999</v>
       </c>
       <c r="D11">
-        <v>5500</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/proj1/ExperienceGraph.xlsx
+++ b/proj1/ExperienceGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfreiredandrade/Documents/Tecnico/Cadeiras/Periodo2/ASA/Projeto/proj1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A95349-D141-6F40-ABD7-D66E18011768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B69FD1-9980-EC40-8337-AC7F25A88C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{27667CF5-8D8E-AD4D-99AC-E23C567C326D}"/>
   </bookViews>
@@ -174,34 +174,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>150000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000000</c:v>
+                  <c:v>500000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9000000</c:v>
+                  <c:v>1050000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000000</c:v>
+                  <c:v>1800000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000000</c:v>
+                  <c:v>2750000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36000000</c:v>
+                  <c:v>3900000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49000000</c:v>
+                  <c:v>5250000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64000000</c:v>
+                  <c:v>6800000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81000000</c:v>
+                  <c:v>8550000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100000000</c:v>
+                  <c:v>10500000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -213,34 +213,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.161</c:v>
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34399999999999997</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59</c:v>
+                  <c:v>0.56899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97399999999999998</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.393</c:v>
+                  <c:v>1.262</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8759999999999999</c:v>
+                  <c:v>1.6870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5009999999999999</c:v>
+                  <c:v>2.1909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.149</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7989999999999999</c:v>
+                  <c:v>3.4140000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,7 +305,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Número de inteiros * Número de inteiros</a:t>
+                  <a:t>Número de inteiros de</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> uma sequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> * Número de inteiros da outra</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1103,13 +1111,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1437,15 +1445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B5E8F-3F34-7B4E-B409-44A338A302FB}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1456,154 +1464,244 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>D2*D2</f>
-        <v>1000000</v>
+        <f>D2*E2</f>
+        <v>150000000</v>
       </c>
       <c r="C2">
-        <v>3.9E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
+        <f>D2+5000</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">D3*D3</f>
-        <v>4000000</v>
+        <f t="shared" ref="B3:B11" si="0">D3*E3</f>
+        <v>500000000</v>
       </c>
       <c r="C3">
-        <v>0.161</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="1">D3+5000</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>9000000</v>
+        <v>1050000000</v>
       </c>
       <c r="C4">
-        <v>0.34399999999999997</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>16000000</v>
+        <v>1800000000</v>
       </c>
       <c r="C5">
-        <v>0.59</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>25000000</v>
+        <v>2750000000</v>
       </c>
       <c r="C6">
-        <v>0.97399999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>36000000</v>
+        <v>3900000000</v>
       </c>
       <c r="C7">
-        <v>1.393</v>
+        <v>1.262</v>
       </c>
       <c r="D7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>49000000</v>
+        <v>5250000000</v>
       </c>
       <c r="C8">
-        <v>1.8759999999999999</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="D8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>64000000</v>
+        <v>6800000000</v>
       </c>
       <c r="C9">
-        <v>2.5009999999999999</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="D9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>81000000</v>
+        <v>8550000000</v>
       </c>
       <c r="C10">
-        <v>3.149</v>
+        <v>2.79</v>
       </c>
       <c r="D10">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>100000000</v>
+        <v>10500000000</v>
       </c>
       <c r="C11">
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="D11">
+        <v>100000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1.393</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1.8759999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>2.5009999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>3.149</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29">
         <v>3.7989999999999999</v>
-      </c>
-      <c r="D11">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>
